--- a/lottery/抽奖名单.xlsx
+++ b/lottery/抽奖名单.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanrui/work/bjhl/doc/bjhl/2018/pm/抽奖/1.25/1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjhl/Desktop/pws/lottery/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通奖" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1057">
   <si>
     <t>员工编号</t>
   </si>
@@ -3195,13 +3198,21 @@
     <t>赵鑫颖</t>
   </si>
   <si>
+    <t>A1278</t>
+  </si>
+  <si>
+    <t>B0115</t>
+  </si>
+  <si>
     <t>A1277</t>
-  </si>
-  <si>
-    <t>A1278</t>
-  </si>
-  <si>
-    <t>B0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1277---头像url',</t>
+    <rPh sb="9" eb="10">
+      <t>tou x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3244,9 +3255,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3527,18 +3539,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C529"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
-      <selection activeCell="C529" sqref="C2:C529"/>
+    <sheetView topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3546,9 +3559,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B2" t="s">
         <v>1050</v>
@@ -3557,10 +3570,13 @@
         <f>"'"&amp;A2&amp;"---"&amp;B2&amp;"',"</f>
         <v>'A1277---刘叶超',</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B3" t="s">
         <v>1051</v>
@@ -3570,9 +3586,9 @@
         <v>'A1278---高雨',</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B4" t="s">
         <v>1052</v>
@@ -3582,7 +3598,7 @@
         <v>'B0115---赵鑫颖',</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3594,7 +3610,7 @@
         <v>'A1276---谢倩颖',</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3606,7 +3622,7 @@
         <v>'B0112---高广慧',</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>'A1274---郭雅雪',</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3630,7 +3646,7 @@
         <v>'A1273---许有宁',</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3658,7 @@
         <v>'A1275---王博',</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3654,7 +3670,7 @@
         <v>'B0113---王颖',</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3666,7 +3682,7 @@
         <v>'B0114---梁文琪',</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>'B0110---赵晖',</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3690,7 +3706,7 @@
         <v>'B0111---杜丽芳',</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3702,7 +3718,7 @@
         <v>'A1272---王佳玉',</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>'A1271---屈汝南',</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -9893,8 +9909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/lottery/抽奖名单.xlsx
+++ b/lottery/抽奖名单.xlsx
@@ -9909,8 +9909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9933,9 +9933,9 @@
       <c r="B2" t="s">
         <v>607</v>
       </c>
-      <c r="C2" t="str">
-        <f>"'"&amp;A2&amp;"---"&amp;B2&amp;"',"</f>
-        <v>'A0623---王超然',</v>
+      <c r="C2">
+        <f>C70</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
